--- a/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>48.71370914491192</v>
+        <v>109.2519978718306</v>
       </c>
       <c r="R2">
-        <v>48.71370914491192</v>
+        <v>983.2679808464751</v>
       </c>
       <c r="S2">
-        <v>0.005332173093292756</v>
+        <v>0.009963739497118998</v>
       </c>
       <c r="T2">
-        <v>0.005332173093292756</v>
+        <v>0.009963739497118995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H3">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I3">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J3">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>316.6423153956966</v>
+        <v>386.4902540770445</v>
       </c>
       <c r="R3">
-        <v>316.6423153956966</v>
+        <v>3478.412286693401</v>
       </c>
       <c r="S3">
-        <v>0.03465947602816039</v>
+        <v>0.035247760085053</v>
       </c>
       <c r="T3">
-        <v>0.03465947602816039</v>
+        <v>0.035247760085053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H4">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I4">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J4">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>90.25962590878387</v>
+        <v>151.1418834271922</v>
       </c>
       <c r="R4">
-        <v>90.25962590878387</v>
+        <v>1360.27695084473</v>
       </c>
       <c r="S4">
-        <v>0.009879763974650164</v>
+        <v>0.01378408068417356</v>
       </c>
       <c r="T4">
-        <v>0.009879763974650164</v>
+        <v>0.01378408068417356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H5">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I5">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J5">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>91.57916633338823</v>
+        <v>111.8454553553711</v>
       </c>
       <c r="R5">
-        <v>91.57916633338823</v>
+        <v>1006.60909819834</v>
       </c>
       <c r="S5">
-        <v>0.01002420007017837</v>
+        <v>0.01020026180578348</v>
       </c>
       <c r="T5">
-        <v>0.01002420007017837</v>
+        <v>0.01020026180578347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H6">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I6">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J6">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>88.76780047106568</v>
+        <v>113.43350486291</v>
       </c>
       <c r="R6">
-        <v>88.76780047106568</v>
+        <v>1020.90154376619</v>
       </c>
       <c r="S6">
-        <v>0.009716469665953053</v>
+        <v>0.01034509130007069</v>
       </c>
       <c r="T6">
-        <v>0.009716469665953053</v>
+        <v>0.01034509130007069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H7">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I7">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J7">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>30.63093185729312</v>
+        <v>40.17569857316556</v>
       </c>
       <c r="R7">
-        <v>30.63093185729312</v>
+        <v>361.5812871584901</v>
       </c>
       <c r="S7">
-        <v>0.003352843245544603</v>
+        <v>0.003664008004388267</v>
       </c>
       <c r="T7">
-        <v>0.003352843245544603</v>
+        <v>0.003664008004388265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J8">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>5.681896329068653</v>
+        <v>11.03410592265778</v>
       </c>
       <c r="R8">
-        <v>5.681896329068653</v>
+        <v>99.30695330392001</v>
       </c>
       <c r="S8">
-        <v>0.0006219369302101936</v>
+        <v>0.001006306146693607</v>
       </c>
       <c r="T8">
-        <v>0.0006219369302101936</v>
+        <v>0.001006306146693607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>36.93270007674059</v>
+        <v>39.03429213774223</v>
       </c>
       <c r="R9">
-        <v>36.93270007674059</v>
+        <v>351.30862923968</v>
       </c>
       <c r="S9">
-        <v>0.004042630977370704</v>
+        <v>0.003559912183676271</v>
       </c>
       <c r="T9">
-        <v>0.004042630977370704</v>
+        <v>0.003559912183676271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J10">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>10.52775175851693</v>
+        <v>15.26485175165511</v>
       </c>
       <c r="R10">
-        <v>10.52775175851693</v>
+        <v>137.383665764896</v>
       </c>
       <c r="S10">
-        <v>0.0011523613300034</v>
+        <v>0.001392148512414967</v>
       </c>
       <c r="T10">
-        <v>0.0011523613300034</v>
+        <v>0.001392148512414967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J11">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>10.68166103839365</v>
+        <v>11.29603691830756</v>
       </c>
       <c r="R11">
-        <v>10.68166103839365</v>
+        <v>101.664332264768</v>
       </c>
       <c r="S11">
-        <v>0.001169208146543799</v>
+        <v>0.001030194151102799</v>
       </c>
       <c r="T11">
-        <v>0.001169208146543799</v>
+        <v>0.001030194151102799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J12">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>10.35374740477399</v>
+        <v>11.456424891232</v>
       </c>
       <c r="R12">
-        <v>10.35374740477399</v>
+        <v>103.107824021088</v>
       </c>
       <c r="S12">
-        <v>0.001133314918850764</v>
+        <v>0.001044821471534641</v>
       </c>
       <c r="T12">
-        <v>0.001133314918850764</v>
+        <v>0.001044821471534641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J13">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>3.57274743251786</v>
+        <v>4.057618370449778</v>
       </c>
       <c r="R13">
-        <v>3.57274743251786</v>
+        <v>36.518565334048</v>
       </c>
       <c r="S13">
-        <v>0.000391070769670437</v>
+        <v>0.0003700532091808113</v>
       </c>
       <c r="T13">
-        <v>0.000391070769670437</v>
+        <v>0.0003700532091808113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H14">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J14">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>79.83700121510432</v>
+        <v>151.8077575130939</v>
       </c>
       <c r="R14">
-        <v>79.83700121510432</v>
+        <v>1366.269817617845</v>
       </c>
       <c r="S14">
-        <v>0.008738909789480167</v>
+        <v>0.01384480814050428</v>
       </c>
       <c r="T14">
-        <v>0.008738909789480167</v>
+        <v>0.01384480814050428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H15">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J15">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>518.9457621426085</v>
+        <v>537.0356598964311</v>
       </c>
       <c r="R15">
-        <v>518.9457621426085</v>
+        <v>4833.320939067879</v>
       </c>
       <c r="S15">
-        <v>0.05680348875803352</v>
+        <v>0.04897744224456971</v>
       </c>
       <c r="T15">
-        <v>0.05680348875803352</v>
+        <v>0.0489774422445697</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H16">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>147.9266922976055</v>
+        <v>210.0145611644095</v>
       </c>
       <c r="R16">
-        <v>147.9266922976055</v>
+        <v>1890.131050479686</v>
       </c>
       <c r="S16">
-        <v>0.0161919661281115</v>
+        <v>0.01915324587930008</v>
       </c>
       <c r="T16">
-        <v>0.0161919661281115</v>
+        <v>0.01915324587930008</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H17">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J17">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>150.0892898975775</v>
+        <v>155.4114166905098</v>
       </c>
       <c r="R17">
-        <v>150.0892898975775</v>
+        <v>1398.702750214588</v>
       </c>
       <c r="S17">
-        <v>0.01642868275134966</v>
+        <v>0.01417346044874214</v>
       </c>
       <c r="T17">
-        <v>0.01642868275134966</v>
+        <v>0.01417346044874213</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H18">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J18">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>145.4817364243107</v>
+        <v>157.618042100162</v>
       </c>
       <c r="R18">
-        <v>145.4817364243107</v>
+        <v>1418.562378901458</v>
       </c>
       <c r="S18">
-        <v>0.01592434273932192</v>
+        <v>0.01437470382348839</v>
       </c>
       <c r="T18">
-        <v>0.01592434273932192</v>
+        <v>0.01437470382348839</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H19">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="I19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J19">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>50.20109917386399</v>
+        <v>55.82490778859088</v>
       </c>
       <c r="R19">
-        <v>50.20109917386399</v>
+        <v>502.4241700973179</v>
       </c>
       <c r="S19">
-        <v>0.005494981904833203</v>
+        <v>0.005091209767246054</v>
       </c>
       <c r="T19">
-        <v>0.005494981904833203</v>
+        <v>0.005091209767246052</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H20">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J20">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>66.58412302813581</v>
+        <v>158.1845918964961</v>
       </c>
       <c r="R20">
-        <v>66.58412302813581</v>
+        <v>1423.661327068465</v>
       </c>
       <c r="S20">
-        <v>0.00728825777144099</v>
+        <v>0.01442637294343842</v>
       </c>
       <c r="T20">
-        <v>0.00728825777144099</v>
+        <v>0.01442637294343842</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H21">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J21">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>432.8011817269506</v>
+        <v>559.594371764929</v>
       </c>
       <c r="R21">
-        <v>432.8011817269506</v>
+        <v>5036.34934588436</v>
       </c>
       <c r="S21">
-        <v>0.04737415517025555</v>
+        <v>0.05103478794832488</v>
       </c>
       <c r="T21">
-        <v>0.04737415517025555</v>
+        <v>0.05103478794832488</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H22">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J22">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>123.3709799864768</v>
+        <v>218.8364296682824</v>
       </c>
       <c r="R22">
-        <v>123.3709799864768</v>
+        <v>1969.527867014542</v>
       </c>
       <c r="S22">
-        <v>0.0135041127338537</v>
+        <v>0.01995779683820838</v>
       </c>
       <c r="T22">
-        <v>0.0135041127338537</v>
+        <v>0.01995779683820838</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H23">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>125.1745881188629</v>
+        <v>161.9396263272263</v>
       </c>
       <c r="R23">
-        <v>125.1745881188629</v>
+        <v>1457.456636945036</v>
       </c>
       <c r="S23">
-        <v>0.01370153458743796</v>
+        <v>0.01476883061560291</v>
       </c>
       <c r="T23">
-        <v>0.01370153458743796</v>
+        <v>0.01476883061560291</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H24">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J24">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>121.3318848277394</v>
+        <v>164.238943210714</v>
       </c>
       <c r="R24">
-        <v>121.3318848277394</v>
+        <v>1478.150488896426</v>
       </c>
       <c r="S24">
-        <v>0.01328091461301796</v>
+        <v>0.01497852741652802</v>
       </c>
       <c r="T24">
-        <v>0.01328091461301796</v>
+        <v>0.01497852741652802</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="H25">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="I25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="J25">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>41.86775696314384</v>
+        <v>58.16988802720512</v>
       </c>
       <c r="R25">
-        <v>41.86775696314384</v>
+        <v>523.528992244846</v>
       </c>
       <c r="S25">
-        <v>0.004582819314605891</v>
+        <v>0.005305071048307977</v>
       </c>
       <c r="T25">
-        <v>0.004582819314605891</v>
+        <v>0.005305071048307976</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H26">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J26">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>416.0968052488914</v>
+        <v>787.9849901586961</v>
       </c>
       <c r="R26">
-        <v>416.0968052488914</v>
+        <v>7091.864911428265</v>
       </c>
       <c r="S26">
-        <v>0.04554570424011646</v>
+        <v>0.07186392306337391</v>
       </c>
       <c r="T26">
-        <v>0.04554570424011646</v>
+        <v>0.07186392306337393</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H27">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J27">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>2704.656618341753</v>
+        <v>2787.578488153729</v>
       </c>
       <c r="R27">
-        <v>2704.656618341753</v>
+        <v>25088.20639338356</v>
       </c>
       <c r="S27">
-        <v>0.2960500750213227</v>
+        <v>0.2542260683994134</v>
       </c>
       <c r="T27">
-        <v>0.2960500750213227</v>
+        <v>0.2542260683994134</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H28">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J28">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>770.9686378403765</v>
+        <v>1090.117689789642</v>
       </c>
       <c r="R28">
-        <v>770.9686378403765</v>
+        <v>9811.059208106781</v>
       </c>
       <c r="S28">
-        <v>0.08438976006191481</v>
+        <v>0.09941830715999865</v>
       </c>
       <c r="T28">
-        <v>0.08438976006191481</v>
+        <v>0.09941830715999868</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H29">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J29">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>782.2397269180183</v>
+        <v>806.6904198941062</v>
       </c>
       <c r="R29">
-        <v>782.2397269180183</v>
+        <v>7260.213779046956</v>
       </c>
       <c r="S29">
-        <v>0.08562348664457199</v>
+        <v>0.07356985094291657</v>
       </c>
       <c r="T29">
-        <v>0.08562348664457199</v>
+        <v>0.07356985094291657</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H30">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>758.2259457005314</v>
+        <v>818.1442989987939</v>
       </c>
       <c r="R30">
-        <v>758.2259457005314</v>
+        <v>7363.298690989145</v>
       </c>
       <c r="S30">
-        <v>0.08299495269953412</v>
+        <v>0.07461444023971357</v>
       </c>
       <c r="T30">
-        <v>0.08299495269953412</v>
+        <v>0.07461444023971357</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="H31">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="I31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="J31">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>261.6395489348075</v>
+        <v>289.7690482688851</v>
       </c>
       <c r="R31">
-        <v>261.6395489348075</v>
+        <v>2607.921434419966</v>
       </c>
       <c r="S31">
-        <v>0.02863890653083539</v>
+        <v>0.02642682392560347</v>
       </c>
       <c r="T31">
-        <v>0.02863890653083539</v>
+        <v>0.02642682392560347</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H32">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I32">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J32">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>50.71832274294619</v>
+        <v>94.78354716814667</v>
       </c>
       <c r="R32">
-        <v>50.71832274294619</v>
+        <v>853.05192451332</v>
       </c>
       <c r="S32">
-        <v>0.005551596883382112</v>
+        <v>0.008644222448949898</v>
       </c>
       <c r="T32">
-        <v>0.005551596883382112</v>
+        <v>0.008644222448949898</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H33">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I33">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J33">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>329.6724357108433</v>
+        <v>335.3066116952534</v>
       </c>
       <c r="R33">
-        <v>329.6724357108433</v>
+        <v>3017.75950525728</v>
       </c>
       <c r="S33">
-        <v>0.03608574510449184</v>
+        <v>0.03057983190854357</v>
       </c>
       <c r="T33">
-        <v>0.03608574510449184</v>
+        <v>0.03057983190854356</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H34">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I34">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J34">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>93.97389190548702</v>
+        <v>131.1258751872907</v>
       </c>
       <c r="R34">
-        <v>93.97389190548702</v>
+        <v>1180.132876685616</v>
       </c>
       <c r="S34">
-        <v>0.01028632528062745</v>
+        <v>0.01195862855735265</v>
       </c>
       <c r="T34">
-        <v>0.01028632528062745</v>
+        <v>0.01195862855735265</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H35">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I35">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J35">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>95.34773262306331</v>
+        <v>97.03354812472533</v>
       </c>
       <c r="R35">
-        <v>95.34773262306331</v>
+        <v>873.301933122528</v>
       </c>
       <c r="S35">
-        <v>0.01043670505333041</v>
+        <v>0.008849421656619481</v>
       </c>
       <c r="T35">
-        <v>0.01043670505333041</v>
+        <v>0.008849421656619479</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H36">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I36">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J36">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>92.42067648924252</v>
+        <v>98.41128920347199</v>
       </c>
       <c r="R36">
-        <v>92.42067648924252</v>
+        <v>885.701602831248</v>
       </c>
       <c r="S36">
-        <v>0.01011631126206956</v>
+        <v>0.008975071104414622</v>
       </c>
       <c r="T36">
-        <v>0.01011631126206956</v>
+        <v>0.00897507110441462</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="H37">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="I37">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="J37">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>31.89142266366819</v>
+        <v>34.85515409237866</v>
       </c>
       <c r="R37">
-        <v>31.89142266366819</v>
+        <v>313.696386831408</v>
       </c>
       <c r="S37">
-        <v>0.003490815805632405</v>
+        <v>0.003178776427647796</v>
       </c>
       <c r="T37">
-        <v>0.003490815805632405</v>
+        <v>0.003178776427647795</v>
       </c>
     </row>
   </sheetData>
